--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
@@ -537,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.67294747205829</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H2">
-        <v>4.67294747205829</v>
+        <v>16.178954</v>
       </c>
       <c r="I2">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J2">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N2">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O2">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P2">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q2">
-        <v>393.1350286294291</v>
+        <v>467.9893386167706</v>
       </c>
       <c r="R2">
-        <v>393.1350286294291</v>
+        <v>2807.936031700624</v>
       </c>
       <c r="S2">
-        <v>0.09102864402536909</v>
+        <v>0.09927135817442269</v>
       </c>
       <c r="T2">
-        <v>0.09102864402536909</v>
+        <v>0.07574504424032809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.67294747205829</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H3">
-        <v>4.67294747205829</v>
+        <v>16.178954</v>
       </c>
       <c r="I3">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J3">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N3">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P3">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q3">
-        <v>564.4473268792517</v>
+        <v>695.2025957607328</v>
       </c>
       <c r="R3">
-        <v>564.4473268792517</v>
+        <v>6256.823361846596</v>
       </c>
       <c r="S3">
-        <v>0.1306952345831142</v>
+        <v>0.147468542961972</v>
       </c>
       <c r="T3">
-        <v>0.1306952345831142</v>
+        <v>0.1687799711234723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.67294747205829</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H4">
-        <v>4.67294747205829</v>
+        <v>16.178954</v>
       </c>
       <c r="I4">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J4">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N4">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O4">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P4">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q4">
-        <v>58.53847787566052</v>
+        <v>67.57187776131222</v>
       </c>
       <c r="R4">
-        <v>58.53847787566052</v>
+        <v>608.14689985181</v>
       </c>
       <c r="S4">
-        <v>0.01355432072005286</v>
+        <v>0.01433355746861271</v>
       </c>
       <c r="T4">
-        <v>0.01355432072005286</v>
+        <v>0.01640497266100291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.67294747205829</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H5">
-        <v>4.67294747205829</v>
+        <v>16.178954</v>
       </c>
       <c r="I5">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J5">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N5">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O5">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P5">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q5">
-        <v>80.05347997077182</v>
+        <v>93.18895221118265</v>
       </c>
       <c r="R5">
-        <v>80.05347997077182</v>
+        <v>838.7005699006437</v>
       </c>
       <c r="S5">
-        <v>0.01853602248737879</v>
+        <v>0.019767531201028</v>
       </c>
       <c r="T5">
-        <v>0.01853602248737879</v>
+        <v>0.02262423753757572</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.67294747205829</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H6">
-        <v>4.67294747205829</v>
+        <v>16.178954</v>
       </c>
       <c r="I6">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J6">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N6">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O6">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P6">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q6">
-        <v>198.1822747440838</v>
+        <v>230.3741519705731</v>
       </c>
       <c r="R6">
-        <v>198.1822747440838</v>
+        <v>2073.367367735157</v>
       </c>
       <c r="S6">
-        <v>0.04588821251240356</v>
+        <v>0.04886768365705694</v>
       </c>
       <c r="T6">
-        <v>0.04588821251240356</v>
+        <v>0.0559298008296993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.67294747205829</v>
+        <v>5.392984666666666</v>
       </c>
       <c r="H7">
-        <v>4.67294747205829</v>
+        <v>16.178954</v>
       </c>
       <c r="I7">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599203</v>
       </c>
       <c r="J7">
-        <v>0.3385221385858004</v>
+        <v>0.3709566379599202</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N7">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O7">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P7">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q7">
-        <v>167.6547608508579</v>
+        <v>194.4529417059203</v>
       </c>
       <c r="R7">
-        <v>167.6547608508579</v>
+        <v>1166.717650235522</v>
       </c>
       <c r="S7">
-        <v>0.03881970425748194</v>
+        <v>0.04124796449682796</v>
       </c>
       <c r="T7">
-        <v>0.03881970425748194</v>
+        <v>0.03147261156784194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.13101669873376</v>
+        <v>9.145061333333333</v>
       </c>
       <c r="H8">
-        <v>9.13101669873376</v>
+        <v>27.435184</v>
       </c>
       <c r="I8">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="J8">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.1299909704025</v>
+        <v>86.777428</v>
       </c>
       <c r="N8">
-        <v>84.1299909704025</v>
+        <v>173.554856</v>
       </c>
       <c r="O8">
-        <v>0.2689001209954762</v>
+        <v>0.2676090626666408</v>
       </c>
       <c r="P8">
-        <v>0.2689001209954762</v>
+        <v>0.2041884050300022</v>
       </c>
       <c r="Q8">
-        <v>768.1923524150657</v>
+        <v>793.5849014089173</v>
       </c>
       <c r="R8">
-        <v>768.1923524150657</v>
+        <v>4761.509408453504</v>
       </c>
       <c r="S8">
-        <v>0.1778714769701071</v>
+        <v>0.1683377044922181</v>
       </c>
       <c r="T8">
-        <v>0.1778714769701071</v>
+        <v>0.1284433607896741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.13101669873376</v>
+        <v>9.145061333333333</v>
       </c>
       <c r="H9">
-        <v>9.13101669873376</v>
+        <v>27.435184</v>
       </c>
       <c r="I9">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="J9">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.790428365468</v>
+        <v>128.9086913333333</v>
       </c>
       <c r="N9">
-        <v>120.790428365468</v>
+        <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.386075885994052</v>
+        <v>0.3975357976419474</v>
       </c>
       <c r="P9">
-        <v>0.386075885994052</v>
+        <v>0.4549857149118007</v>
       </c>
       <c r="Q9">
-        <v>1102.939418452292</v>
+        <v>1178.877888643068</v>
       </c>
       <c r="R9">
-        <v>1102.939418452292</v>
+        <v>10609.90099778762</v>
       </c>
       <c r="S9">
-        <v>0.2553806514109379</v>
+        <v>0.2500672546799754</v>
       </c>
       <c r="T9">
-        <v>0.2553806514109379</v>
+        <v>0.2862057437883284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.13101669873376</v>
+        <v>9.145061333333333</v>
       </c>
       <c r="H10">
-        <v>9.13101669873376</v>
+        <v>27.435184</v>
       </c>
       <c r="I10">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="J10">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5270994860715</v>
+        <v>12.52958833333333</v>
       </c>
       <c r="N10">
-        <v>12.5270994860715</v>
+        <v>37.588765</v>
       </c>
       <c r="O10">
-        <v>0.04003968773409316</v>
+        <v>0.03863944192356349</v>
       </c>
       <c r="P10">
-        <v>0.04003968773409316</v>
+        <v>0.04422342393230168</v>
       </c>
       <c r="Q10">
-        <v>114.385154594018</v>
+        <v>114.5838537897511</v>
       </c>
       <c r="R10">
-        <v>114.385154594018</v>
+        <v>1031.25468410776</v>
       </c>
       <c r="S10">
-        <v>0.0264853670140403</v>
+        <v>0.02430588445495079</v>
       </c>
       <c r="T10">
-        <v>0.0264853670140403</v>
+        <v>0.02781845127129878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.13101669873376</v>
+        <v>9.145061333333333</v>
       </c>
       <c r="H11">
-        <v>9.13101669873376</v>
+        <v>27.435184</v>
       </c>
       <c r="I11">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="J11">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.1312603981638</v>
+        <v>17.279662</v>
       </c>
       <c r="N11">
-        <v>17.1312603981638</v>
+        <v>51.83898599999999</v>
       </c>
       <c r="O11">
-        <v>0.05475571720305886</v>
+        <v>0.05328798349515926</v>
       </c>
       <c r="P11">
-        <v>0.05475571720305886</v>
+        <v>0.06098890064886812</v>
       </c>
       <c r="Q11">
-        <v>156.42582476599</v>
+        <v>158.0235688092693</v>
       </c>
       <c r="R11">
-        <v>156.42582476599</v>
+        <v>1422.212119283424</v>
       </c>
       <c r="S11">
-        <v>0.03621969471568007</v>
+        <v>0.03352045229413127</v>
       </c>
       <c r="T11">
-        <v>0.03621969471568007</v>
+        <v>0.03836466311129241</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.13101669873376</v>
+        <v>9.145061333333333</v>
       </c>
       <c r="H12">
-        <v>9.13101669873376</v>
+        <v>27.435184</v>
       </c>
       <c r="I12">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="J12">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.4105504992528</v>
+        <v>42.71737566666666</v>
       </c>
       <c r="N12">
-        <v>42.4105504992528</v>
+        <v>128.152127</v>
       </c>
       <c r="O12">
-        <v>0.1355545392218799</v>
+        <v>0.1317342208129911</v>
       </c>
       <c r="P12">
-        <v>0.1355545392218799</v>
+        <v>0.1507718021634167</v>
       </c>
       <c r="Q12">
-        <v>387.2514448111687</v>
+        <v>390.6530204707075</v>
       </c>
       <c r="R12">
-        <v>387.2514448111687</v>
+        <v>3515.877184236367</v>
       </c>
       <c r="S12">
-        <v>0.08966632670947638</v>
+        <v>0.08286653715593419</v>
       </c>
       <c r="T12">
-        <v>0.08966632670947638</v>
+        <v>0.09484200133371744</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.13101669873376</v>
+        <v>9.145061333333333</v>
       </c>
       <c r="H13">
-        <v>9.13101669873376</v>
+        <v>27.435184</v>
       </c>
       <c r="I13">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="J13">
-        <v>0.6614778614141996</v>
+        <v>0.6290433620400798</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.8777328128217</v>
+        <v>36.0566465</v>
       </c>
       <c r="N13">
-        <v>35.8777328128217</v>
+        <v>72.113293</v>
       </c>
       <c r="O13">
-        <v>0.1146740488514397</v>
+        <v>0.111193493459698</v>
       </c>
       <c r="P13">
-        <v>0.1146740488514397</v>
+        <v>0.08484175331361067</v>
       </c>
       <c r="Q13">
-        <v>327.6001774265831</v>
+        <v>329.7402437168186</v>
       </c>
       <c r="R13">
-        <v>327.6001774265831</v>
+        <v>1978.441462300912</v>
       </c>
       <c r="S13">
-        <v>0.07585434459395782</v>
+        <v>0.06994552896287005</v>
       </c>
       <c r="T13">
-        <v>0.07585434459395782</v>
+        <v>0.05336914174576874</v>
       </c>
     </row>
   </sheetData>
